--- a/examples/use-cases/portfolio-construction/data/auto-load-transactions.xlsx
+++ b/examples/use-cases/portfolio-construction/data/auto-load-transactions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danbarclay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dandasaro/work/code/github/sample-notebooks/examples/use-cases/portfolio-construction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88A3315-046B-914A-BDB7-8F976A6A9844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF6927B-B939-434D-B1C0-A5107AED9AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="3600" windowWidth="25160" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9420" yWindow="-16860" windowWidth="25160" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
   <si>
     <t>transactionId</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>BLGZ986</t>
+  </si>
+  <si>
+    <t>portfolioCode</t>
+  </si>
+  <si>
+    <t>uk-equity</t>
   </si>
 </sst>
 </file>
@@ -695,463 +701,493 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="27.83203125" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="27.83203125" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>87</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>89</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>90</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3091357</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>91</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>92</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>94</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>95</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>870612</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>44</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>96</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>97</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>604316</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>51</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>52</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>102</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>101</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>59</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>98</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>99</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>65</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>66</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>67</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>68</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>69</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>70</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>91</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>104</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>108</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>73</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>66</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>74</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>75</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>76</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>77</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>106</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>107</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>766937</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>81</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>82</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>83</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>84</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>85</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>96</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>109</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
